--- a/output/missing-values-education_level.xlsx
+++ b/output/missing-values-education_level.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -101,9 +104,15 @@
     <t xml:space="preserve">TSH0043</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0056</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0058</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0100</t>
   </si>
   <si>
@@ -119,9 +128,21 @@
     <t xml:space="preserve">TSH0237</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0318</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0357</t>
   </si>
   <si>
@@ -170,6 +191,9 @@
     <t xml:space="preserve">TSH0695</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0702</t>
   </si>
   <si>
@@ -206,9 +230,15 @@
     <t xml:space="preserve">TSH0789</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0796</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0799</t>
   </si>
   <si>
@@ -227,6 +257,9 @@
     <t xml:space="preserve">TSH0820</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0825</t>
   </si>
   <si>
@@ -263,6 +296,9 @@
     <t xml:space="preserve">TSH0871</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0876</t>
   </si>
   <si>
@@ -341,9 +377,15 @@
     <t xml:space="preserve">TSH0932</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0937</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0943</t>
   </si>
   <si>
@@ -386,6 +428,9 @@
     <t xml:space="preserve">TSH0976</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0979</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0985</t>
   </si>
   <si>
@@ -740,6 +785,9 @@
     <t xml:space="preserve">TSH1336</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1341</t>
   </si>
   <si>
@@ -893,6 +941,9 @@
     <t xml:space="preserve">TSH1448</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1452</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1454</t>
   </si>
   <si>
@@ -1070,9 +1121,15 @@
     <t xml:space="preserve">TSH1595</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1598</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1599</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1603</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1615</t>
   </si>
   <si>
@@ -1112,18 +1169,81 @@
     <t xml:space="preserve">TSH1641</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1645</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1647</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1650</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1653</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1658</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1709</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1710</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1727</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1740</t>
   </si>
   <si>
@@ -1166,13 +1286,16 @@
     <t xml:space="preserve">TSH1809</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1811</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1812</t>
   </si>
   <si>
-    <t xml:space="preserve">TSH1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH1822</t>
+    <t xml:space="preserve">TSH1813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1815</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1840</t>
@@ -1184,6 +1307,21 @@
     <t xml:space="preserve">TSH1846</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1885</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1900</t>
   </si>
   <si>
@@ -1196,6 +1334,9 @@
     <t xml:space="preserve">TSH1919</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1920</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1922</t>
   </si>
   <si>
@@ -1206,6 +1347,18 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1957</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1856,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -1727,7 +1880,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -1739,7 +1892,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -3479,103 +3632,103 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B324"/>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B325"/>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B326"/>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B327"/>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B328"/>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B329"/>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B330"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B331"/>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B332"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B333"/>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B334"/>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B335"/>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B336"/>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B337"/>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B338"/>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B339"/>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B340"/>
     </row>
@@ -3974,6 +4127,312 @@
         <v>397</v>
       </c>
       <c r="B406"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>398</v>
+      </c>
+      <c r="B407"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>399</v>
+      </c>
+      <c r="B408"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>400</v>
+      </c>
+      <c r="B409"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>401</v>
+      </c>
+      <c r="B410"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>402</v>
+      </c>
+      <c r="B411"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>403</v>
+      </c>
+      <c r="B412"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>404</v>
+      </c>
+      <c r="B413"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>405</v>
+      </c>
+      <c r="B414"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>406</v>
+      </c>
+      <c r="B415"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>407</v>
+      </c>
+      <c r="B416"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>408</v>
+      </c>
+      <c r="B417"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>409</v>
+      </c>
+      <c r="B418"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>410</v>
+      </c>
+      <c r="B419"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>411</v>
+      </c>
+      <c r="B420"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>412</v>
+      </c>
+      <c r="B421"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>413</v>
+      </c>
+      <c r="B422"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>414</v>
+      </c>
+      <c r="B423"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>415</v>
+      </c>
+      <c r="B424"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>416</v>
+      </c>
+      <c r="B425"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>417</v>
+      </c>
+      <c r="B426"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>418</v>
+      </c>
+      <c r="B427"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>419</v>
+      </c>
+      <c r="B428"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>420</v>
+      </c>
+      <c r="B429"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>421</v>
+      </c>
+      <c r="B430"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>422</v>
+      </c>
+      <c r="B431"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>423</v>
+      </c>
+      <c r="B432"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>424</v>
+      </c>
+      <c r="B433"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>425</v>
+      </c>
+      <c r="B434"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>426</v>
+      </c>
+      <c r="B435"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>427</v>
+      </c>
+      <c r="B436"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>428</v>
+      </c>
+      <c r="B437"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>429</v>
+      </c>
+      <c r="B438"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>430</v>
+      </c>
+      <c r="B439"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>431</v>
+      </c>
+      <c r="B440"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>432</v>
+      </c>
+      <c r="B441"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>433</v>
+      </c>
+      <c r="B442"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>434</v>
+      </c>
+      <c r="B443"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>435</v>
+      </c>
+      <c r="B444"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>436</v>
+      </c>
+      <c r="B445"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>437</v>
+      </c>
+      <c r="B446"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>438</v>
+      </c>
+      <c r="B447"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>439</v>
+      </c>
+      <c r="B448"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>440</v>
+      </c>
+      <c r="B449"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>441</v>
+      </c>
+      <c r="B450"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>442</v>
+      </c>
+      <c r="B451"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>443</v>
+      </c>
+      <c r="B452"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>444</v>
+      </c>
+      <c r="B453"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>445</v>
+      </c>
+      <c r="B454"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>446</v>
+      </c>
+      <c r="B455"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>447</v>
+      </c>
+      <c r="B456"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>448</v>
+      </c>
+      <c r="B457"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
